--- a/speedtest/Resources/SpeedTestReports.xlsx
+++ b/speedtest/Resources/SpeedTestReports.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Reports" r:id="rId1" sheetId="1"/>
   </sheets>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Reports!$A$3:$D$21</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -80,11 +83,151 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="145">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
@@ -366,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -374,8 +517,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.140625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -383,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="n">
-        <v>4.0</v>
+        <v>144.0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -443,24 +587,1980 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7">
-      <c r="A7" t="n" s="4">
-        <v>42965.07673579861</v>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>42965.076735798611</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>22.93</v>
+      </c>
+      <c r="D7">
+        <v>22.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>42965.537356956018</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>15.11</v>
+      </c>
+      <c r="D8">
+        <v>17.97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>42965.552386655094</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="D9">
+        <v>20.53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>42965.708216724539</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>10.07</v>
+      </c>
+      <c r="D10">
+        <v>14.91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>42965.740778391206</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>9.02</v>
+      </c>
+      <c r="D11">
+        <v>14.59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>42965.750957881944</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>15.1</v>
+      </c>
+      <c r="D12">
+        <v>20.18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>42965.761339050929</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>15.62</v>
+      </c>
+      <c r="D13">
+        <v>20.02</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>42965.77165328704</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>15.04</v>
+      </c>
+      <c r="D14">
+        <v>19.98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>42965.796673761572</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="D15">
+        <v>17.61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>42965.803289675925</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>18.28</v>
+      </c>
+      <c r="D16">
+        <v>19.329999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>42965.813458634257</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>18.93</v>
+      </c>
+      <c r="D17">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>42965.823925092591</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>17.37</v>
+      </c>
+      <c r="D18">
+        <v>19.73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <v>42965.834245636572</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>17.47</v>
+      </c>
+      <c r="D19">
+        <v>20.81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>42965.844751562501</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>17.28</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>42965.855448182869</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>15.4</v>
+      </c>
+      <c r="D21">
+        <v>18.22</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="19" t="n">
+        <v>42965.865578032404</v>
+      </c>
+      <c r="B22" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>17.42</v>
+      </c>
+      <c r="D22" t="n">
+        <v>18.78</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="20" t="n">
+        <v>42965.87595326389</v>
+      </c>
+      <c r="B23" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="D23" t="n">
+        <v>16.61</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="21" t="n">
+        <v>42965.88669533565</v>
+      </c>
+      <c r="B24" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="D24" t="n">
+        <v>17.14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="22" t="n">
+        <v>42965.89741240741</v>
+      </c>
+      <c r="B25" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>14.45</v>
+      </c>
+      <c r="D25" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="23" t="n">
+        <v>42965.907126273145</v>
+      </c>
+      <c r="B26" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="D26" t="n">
+        <v>20.83</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="24" t="n">
+        <v>42965.917473217596</v>
+      </c>
+      <c r="B27" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="D27" t="n">
+        <v>17.43</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="25" t="n">
+        <v>42965.92798315972</v>
+      </c>
+      <c r="B28" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="D28" t="n">
+        <v>21.36</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="26" t="n">
+        <v>42965.938678287035</v>
+      </c>
+      <c r="B29" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="D29" t="n">
+        <v>15.74</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="27" t="n">
+        <v>42965.94941951389</v>
+      </c>
+      <c r="B30" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>20.96</v>
+      </c>
+      <c r="D30" t="n">
+        <v>18.41</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="28" t="n">
+        <v>42965.959264652774</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="D31" t="n">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="29" t="n">
+        <v>42965.96980555556</v>
+      </c>
+      <c r="B32" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>21.73</v>
+      </c>
+      <c r="D32" t="n">
+        <v>21.49</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="30" t="n">
+        <v>42965.98008625</v>
+      </c>
+      <c r="B33" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>21.73</v>
+      </c>
+      <c r="D33" t="n">
+        <v>21.33</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="31" t="n">
+        <v>42965.99046626157</v>
+      </c>
+      <c r="B34" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>21.28</v>
+      </c>
+      <c r="D34" t="n">
+        <v>21.06</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="32" t="n">
+        <v>42966.00098425926</v>
+      </c>
+      <c r="B35" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>23.39</v>
+      </c>
+      <c r="D35" t="n">
+        <v>19.96</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="33" t="n">
+        <v>42966.01122576389</v>
+      </c>
+      <c r="B36" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="D36" t="n">
+        <v>21.76</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="34" t="n">
+        <v>42966.02165994213</v>
+      </c>
+      <c r="B37" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>17.57</v>
+      </c>
+      <c r="D37" t="n">
+        <v>22.05</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="35" t="n">
+        <v>42966.03209734954</v>
+      </c>
+      <c r="B38" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>18.68</v>
+      </c>
+      <c r="D38" t="n">
+        <v>21.94</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="36" t="n">
+        <v>42966.04262587963</v>
+      </c>
+      <c r="B39" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>20.68</v>
+      </c>
+      <c r="D39" t="n">
+        <v>20.65</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="37" t="n">
+        <v>42966.052917175926</v>
+      </c>
+      <c r="B40" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="D40" t="n">
+        <v>20.63</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="38" t="n">
+        <v>42966.06338825232</v>
+      </c>
+      <c r="B41" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>17.16</v>
+      </c>
+      <c r="D41" t="n">
+        <v>19.97</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="39" t="n">
+        <v>42966.07373496528</v>
+      </c>
+      <c r="B42" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>17.94</v>
+      </c>
+      <c r="D42" t="n">
+        <v>22.26</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="40" t="n">
+        <v>42966.08424866898</v>
+      </c>
+      <c r="B43" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="D43" t="n">
+        <v>13.86</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="41" t="n">
+        <v>42966.09457930556</v>
+      </c>
+      <c r="B44" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="D44" t="n">
+        <v>23.07</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="42" t="n">
+        <v>42966.105020208335</v>
+      </c>
+      <c r="B45" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>19.48</v>
+      </c>
+      <c r="D45" t="n">
+        <v>20.18</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="43" t="n">
+        <v>42966.1154378125</v>
+      </c>
+      <c r="B46" t="n">
         <v>4.0</v>
       </c>
-      <c r="C7" t="n">
-        <v>22.93</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C46" t="n">
+        <v>20.98</v>
+      </c>
+      <c r="D46" t="n">
+        <v>21.02</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="44" t="n">
+        <v>42966.12587836805</v>
+      </c>
+      <c r="B47" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>20.97</v>
+      </c>
+      <c r="D47" t="n">
+        <v>20.07</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="45" t="n">
+        <v>42966.13622803241</v>
+      </c>
+      <c r="B48" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>23.09</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="46" t="n">
+        <v>42966.33470386574</v>
+      </c>
+      <c r="B49" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>22.83</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="47" t="n">
+        <v>42966.34458329861</v>
+      </c>
+      <c r="B50" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>16.93</v>
+      </c>
+      <c r="D50" t="n">
+        <v>19.56</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="48" t="n">
+        <v>42966.4759559838</v>
+      </c>
+      <c r="B51" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>17.82</v>
+      </c>
+      <c r="D51" t="n">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="49" t="n">
+        <v>42966.477424641205</v>
+      </c>
+      <c r="B52" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>17.53</v>
+      </c>
+      <c r="D52" t="n">
+        <v>15.49</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="50" t="n">
+        <v>42966.480507280095</v>
+      </c>
+      <c r="B53" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="D53" t="n">
+        <v>10.76</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="51" t="n">
+        <v>42966.4905343287</v>
+      </c>
+      <c r="B54" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>16.74</v>
+      </c>
+      <c r="D54" t="n">
+        <v>20.97</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="52" t="n">
+        <v>42966.50086959491</v>
+      </c>
+      <c r="B55" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="D55" t="n">
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="53" t="n">
+        <v>42966.51139395833</v>
+      </c>
+      <c r="B56" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="D56" t="n">
+        <v>16.31</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="54" t="n">
+        <v>42966.52185640046</v>
+      </c>
+      <c r="B57" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="D57" t="n">
+        <v>20.55</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="55" t="n">
+        <v>42966.53204351852</v>
+      </c>
+      <c r="B58" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>15.96</v>
+      </c>
+      <c r="D58" t="n">
+        <v>19.31</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="56" t="n">
+        <v>42966.5424993287</v>
+      </c>
+      <c r="B59" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="D59" t="n">
+        <v>21.99</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="57" t="n">
+        <v>42966.552923703704</v>
+      </c>
+      <c r="B60" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="D60" t="n">
+        <v>21.78</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="58" t="n">
+        <v>42966.563852997686</v>
+      </c>
+      <c r="B61" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>13.07</v>
+      </c>
+      <c r="D61" t="n">
+        <v>22.91</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="59" t="n">
+        <v>42966.57376518519</v>
+      </c>
+      <c r="B62" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>17.18</v>
+      </c>
+      <c r="D62" t="n">
+        <v>21.92</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="60" t="n">
+        <v>42966.58417133102</v>
+      </c>
+      <c r="B63" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>13.57</v>
+      </c>
+      <c r="D63" t="n">
+        <v>21.81</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="61" t="n">
+        <v>42966.59461835648</v>
+      </c>
+      <c r="B64" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>9.86</v>
+      </c>
+      <c r="D64" t="n">
+        <v>20.13</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="62" t="n">
+        <v>42966.60500452546</v>
+      </c>
+      <c r="B65" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D65" t="n">
+        <v>22.09</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="63" t="n">
+        <v>42966.61562517361</v>
+      </c>
+      <c r="B66" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="D66" t="n">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="64" t="n">
+        <v>42966.62859875</v>
+      </c>
+      <c r="B67" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="D67" t="n">
+        <v>20.73</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="65" t="n">
+        <v>42966.63628053241</v>
+      </c>
+      <c r="B68" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>13.81</v>
+      </c>
+      <c r="D68" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="66" t="n">
+        <v>42966.646588379626</v>
+      </c>
+      <c r="B69" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="D69" t="n">
+        <v>21.83</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="67" t="n">
+        <v>42966.65779655093</v>
+      </c>
+      <c r="B70" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="D70" t="n">
+        <v>18.11</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="68" t="n">
+        <v>42966.66821768518</v>
+      </c>
+      <c r="B71" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D71" t="n">
+        <v>20.99</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="69" t="n">
+        <v>42966.67860369213</v>
+      </c>
+      <c r="B72" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>12.89</v>
+      </c>
+      <c r="D72" t="n">
+        <v>21.66</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="70" t="n">
+        <v>42966.688738171295</v>
+      </c>
+      <c r="B73" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="D73" t="n">
+        <v>20.73</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="71" t="n">
+        <v>42966.699470671294</v>
+      </c>
+      <c r="B74" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>15.27</v>
+      </c>
+      <c r="D74" t="n">
+        <v>10.69</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="72" t="n">
+        <v>42966.70915696759</v>
+      </c>
+      <c r="B75" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>16.08</v>
+      </c>
+      <c r="D75" t="n">
+        <v>21.49</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="73" t="n">
+        <v>42966.71956827546</v>
+      </c>
+      <c r="B76" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>15.87</v>
+      </c>
+      <c r="D76" t="n">
+        <v>19.4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="74" t="n">
+        <v>42966.72997893518</v>
+      </c>
+      <c r="B77" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D77" t="n">
+        <v>11.36</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="75" t="n">
+        <v>42966.74039275463</v>
+      </c>
+      <c r="B78" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>19.28</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="76" t="n">
+        <v>42966.75128399306</v>
+      </c>
+      <c r="B79" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D79" t="n">
+        <v>18.89</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="77" t="n">
+        <v>42966.76143288195</v>
+      </c>
+      <c r="B80" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>14.86</v>
+      </c>
+      <c r="D80" t="n">
+        <v>19.42</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="78" t="n">
+        <v>42966.77174390046</v>
+      </c>
+      <c r="B81" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="D81" t="n">
+        <v>18.23</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="79" t="n">
+        <v>42966.78205311343</v>
+      </c>
+      <c r="B82" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="D82" t="n">
+        <v>20.05</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="80" t="n">
+        <v>42966.793687881946</v>
+      </c>
+      <c r="B83" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="D83" t="n">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="81" t="n">
+        <v>42966.80391282407</v>
+      </c>
+      <c r="B84" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="D84" t="n">
+        <v>19.64</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="82" t="n">
+        <v>42966.81335085648</v>
+      </c>
+      <c r="B85" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="D85" t="n">
+        <v>19.79</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="83" t="n">
+        <v>42966.82375163194</v>
+      </c>
+      <c r="B86" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="D86" t="n">
+        <v>18.41</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="84" t="n">
+        <v>42966.83420712963</v>
+      </c>
+      <c r="B87" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="D87" t="n">
+        <v>20.42</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="85" t="n">
+        <v>42966.844655706016</v>
+      </c>
+      <c r="B88" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>13.96</v>
+      </c>
+      <c r="D88" t="n">
+        <v>20.75</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="86" t="n">
+        <v>42966.85524784722</v>
+      </c>
+      <c r="B89" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="D89" t="n">
+        <v>18.91</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="87" t="n">
+        <v>42966.86565267361</v>
+      </c>
+      <c r="B90" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>15.23</v>
+      </c>
+      <c r="D90" t="n">
+        <v>11.53</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="88" t="n">
+        <v>42966.87605820602</v>
+      </c>
+      <c r="B91" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="D91" t="n">
+        <v>14.36</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="89" t="n">
+        <v>42966.88641141204</v>
+      </c>
+      <c r="B92" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="D92" t="n">
+        <v>14.13</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="90" t="n">
+        <v>42966.89685603009</v>
+      </c>
+      <c r="B93" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="D93" t="n">
+        <v>15.38</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="91" t="n">
+        <v>42966.907231875</v>
+      </c>
+      <c r="B94" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="D94" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="92" t="n">
+        <v>42966.9185215625</v>
+      </c>
+      <c r="B95" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>10.16</v>
+      </c>
+      <c r="D95" t="n">
+        <v>13.41</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="93" t="n">
+        <v>42966.92809763889</v>
+      </c>
+      <c r="B96" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="D96" t="n">
+        <v>16.68</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="94" t="n">
+        <v>42966.93846466435</v>
+      </c>
+      <c r="B97" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>14.98</v>
+      </c>
+      <c r="D97" t="n">
+        <v>17.27</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="95" t="n">
+        <v>42966.94908961806</v>
+      </c>
+      <c r="B98" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="D98" t="n">
+        <v>16.36</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="96" t="n">
+        <v>42966.95998626157</v>
+      </c>
+      <c r="B99" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="D99" t="n">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="97" t="n">
+        <v>42966.9697240625</v>
+      </c>
+      <c r="B100" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="D100" t="n">
+        <v>15.83</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="98" t="n">
+        <v>42966.98009747685</v>
+      </c>
+      <c r="B101" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="D101" t="n">
+        <v>15.94</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="99" t="n">
+        <v>42966.99036204861</v>
+      </c>
+      <c r="B102" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>19.13</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="100" t="n">
+        <v>42967.00085739583</v>
+      </c>
+      <c r="B103" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>13.26</v>
+      </c>
+      <c r="D103" t="n">
+        <v>18.03</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="101" t="n">
+        <v>42967.01153510417</v>
+      </c>
+      <c r="B104" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="D104" t="n">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="102" t="n">
+        <v>42967.02231579861</v>
+      </c>
+      <c r="B105" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="D105" t="n">
+        <v>20.04</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="103" t="n">
+        <v>42967.032203414354</v>
+      </c>
+      <c r="B106" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="D106" t="n">
+        <v>18.18</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="104" t="n">
+        <v>42967.04250177083</v>
+      </c>
+      <c r="B107" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="D107" t="n">
+        <v>18.11</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="105" t="n">
+        <v>42967.48930383102</v>
+      </c>
+      <c r="B108" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>14.33</v>
+      </c>
+      <c r="D108" t="n">
+        <v>17.65</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="106" t="n">
+        <v>42967.49067753472</v>
+      </c>
+      <c r="B109" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>21.57</v>
+      </c>
+      <c r="D109" t="n">
+        <v>19.81</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="107" t="n">
+        <v>42967.49196346065</v>
+      </c>
+      <c r="B110" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>20.82</v>
+      </c>
+      <c r="D110" t="n">
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="108" t="n">
+        <v>42967.5015146875</v>
+      </c>
+      <c r="B111" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>21.66</v>
+      </c>
+      <c r="D111" t="n">
+        <v>17.04</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="109" t="n">
+        <v>42967.51139136574</v>
+      </c>
+      <c r="B112" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="D112" t="n">
+        <v>18.64</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="110" t="n">
+        <v>42967.52190384259</v>
+      </c>
+      <c r="B113" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D113" t="n">
+        <v>21.44</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="111" t="n">
+        <v>42967.54390322917</v>
+      </c>
+      <c r="B114" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D114" t="n">
+        <v>18.97</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="112" t="n">
+        <v>42967.55299204861</v>
+      </c>
+      <c r="B115" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="D115" t="n">
+        <v>21.82</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="113" t="n">
+        <v>42967.56343445602</v>
+      </c>
+      <c r="B116" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>10.22</v>
+      </c>
+      <c r="D116" t="n">
+        <v>18.43</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="114" t="n">
+        <v>42967.57400378472</v>
+      </c>
+      <c r="B117" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="D117" t="n">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="115" t="n">
+        <v>42967.58426372685</v>
+      </c>
+      <c r="B118" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>21.55</v>
+      </c>
+      <c r="D118" t="n">
+        <v>18.03</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="116" t="n">
+        <v>42967.59475855324</v>
+      </c>
+      <c r="B119" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D119" t="n">
+        <v>14.95</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="117" t="n">
+        <v>42967.60533258102</v>
+      </c>
+      <c r="B120" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="D120" t="n">
+        <v>19.88</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="118" t="n">
+        <v>42967.61554675926</v>
+      </c>
+      <c r="B121" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="D121" t="n">
+        <v>22.04</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="119" t="n">
+        <v>42967.62625277778</v>
+      </c>
+      <c r="B122" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>18.89</v>
+      </c>
+      <c r="D122" t="n">
+        <v>19.19</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="120" t="n">
+        <v>42967.646757650466</v>
+      </c>
+      <c r="B123" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>20.85</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="121" t="n">
+        <v>42967.65699068287</v>
+      </c>
+      <c r="B124" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>23.44</v>
+      </c>
+      <c r="D124" t="n">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="122" t="n">
+        <v>42967.667491597225</v>
+      </c>
+      <c r="B125" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>22.76</v>
+      </c>
+      <c r="D125" t="n">
+        <v>23.04</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="123" t="n">
+        <v>42967.67834810185</v>
+      </c>
+      <c r="B126" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="D126" t="n">
+        <v>19.02</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="124" t="n">
+        <v>42967.688271203704</v>
+      </c>
+      <c r="B127" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="D127" t="n">
+        <v>22.82</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="125" t="n">
+        <v>42967.698660925926</v>
+      </c>
+      <c r="B128" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>19.27</v>
+      </c>
+      <c r="D128" t="n">
+        <v>21.78</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="126" t="n">
+        <v>42967.70914888889</v>
+      </c>
+      <c r="B129" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="D129" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="127" t="n">
+        <v>42967.721181458335</v>
+      </c>
+      <c r="B130" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="D130" t="n">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="128" t="n">
+        <v>42967.730014872686</v>
+      </c>
+      <c r="B131" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="D131" t="n">
+        <v>22.73</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="129" t="n">
+        <v>42967.740354953705</v>
+      </c>
+      <c r="B132" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>15.11</v>
+      </c>
+      <c r="D132" t="n">
+        <v>21.46</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="130" t="n">
+        <v>42967.750822256945</v>
+      </c>
+      <c r="B133" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="D133" t="n">
+        <v>22.67</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="131" t="n">
+        <v>42967.76117740741</v>
+      </c>
+      <c r="B134" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>14.65</v>
+      </c>
+      <c r="D134" t="n">
+        <v>23.14</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="132" t="n">
+        <v>42967.771596736115</v>
+      </c>
+      <c r="B135" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="D135" t="n">
+        <v>21.03</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="133" t="n">
+        <v>42967.78310987268</v>
+      </c>
+      <c r="B136" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D136" t="n">
+        <v>14.59</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="134" t="n">
+        <v>42967.792504143516</v>
+      </c>
+      <c r="B137" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>23.14</v>
+      </c>
+      <c r="D137" t="n">
+        <v>23.12</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="135" t="n">
+        <v>42967.80279003472</v>
+      </c>
+      <c r="B138" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="D138" t="n">
+        <v>23.12</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="136" t="n">
+        <v>42967.813277152774</v>
+      </c>
+      <c r="B139" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>19.61</v>
+      </c>
+      <c r="D139" t="n">
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="137" t="n">
+        <v>42967.823724560185</v>
+      </c>
+      <c r="B140" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>18.49</v>
+      </c>
+      <c r="D140" t="n">
+        <v>21.22</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="138" t="n">
+        <v>42967.8340902662</v>
+      </c>
+      <c r="B141" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C141" t="n">
+        <v>18.63</v>
+      </c>
+      <c r="D141" t="n">
+        <v>23.18</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="139" t="n">
+        <v>42967.844563425926</v>
+      </c>
+      <c r="B142" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C142" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="D142" t="n">
+        <v>21.71</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="140" t="n">
+        <v>42967.85497259259</v>
+      </c>
+      <c r="B143" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C143" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="D143" t="n">
+        <v>22.28</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="141" t="n">
+        <v>42967.86560650463</v>
+      </c>
+      <c r="B144" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C144" t="n">
+        <v>18.39</v>
+      </c>
+      <c r="D144" t="n">
         <v>22.75</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="1"/>
+    <row r="145">
+      <c r="A145" s="142" t="n">
+        <v>42967.875826724536</v>
+      </c>
+      <c r="B145" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C145" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D145" t="n">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="143" t="n">
+        <v>42967.88622572917</v>
+      </c>
+      <c r="B146" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C146" t="n">
+        <v>17.08</v>
+      </c>
+      <c r="D146" t="n">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n" s="144">
+        <v>42967.89709375</v>
+      </c>
+      <c r="B147" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C147" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="D147" t="n">
+        <v>21.92</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:D21"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup copies="0" horizontalDpi="0" orientation="portrait" paperSize="0" verticalDpi="0"/>
 </worksheet>
